--- a/form_reporting_templates/interim/Form-2FC_interim.xlsx
+++ b/form_reporting_templates/interim/Form-2FC_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB82606-967B-4731-8B4E-B1258FE8E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8187C9-01D1-4EAD-8302-B6E88390A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -87,15 +87,6 @@
     <t>Source coverage</t>
   </si>
   <si>
-    <t>IOTC form 2-FC | metadata</t>
-  </si>
-  <si>
-    <t>2-FC</t>
-  </si>
-  <si>
-    <t>IOTC form 2-FC | data</t>
-  </si>
-  <si>
     <t>Boat</t>
   </si>
   <si>
@@ -148,6 +139,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 2FC | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 2FC | metadata</t>
+  </si>
+  <si>
+    <t>2FC</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1226,14 +1226,14 @@
         <v>11</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="D8" s="65"/>
       <c r="E8" s="20"/>
       <c r="F8" s="65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="21"/>
@@ -1295,12 +1295,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1317,7 +1317,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1388,7 +1388,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1468,7 +1468,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nuUz9YrvmkEBa4kqGIDEXPsAtxPBZzyiuP7SSC2rRiulLeHKckpabcjRG7ovG0+4WbPpE5UGPBfzoCXiisbcjg==" saltValue="PSiupMLO2lmOmUE6iaMFEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zLm762lnbx+x2FeTO1gC4Kgkr1CA38+dAlnCC2wRVDPcpS/MxnEpmPa7rXA2AefTVtEW821N3Pg4NkmRquOoxg==" saltValue="35YNW2CynZ2WTme70V7zyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1577,7 +1577,7 @@
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="72" t="s">
@@ -1590,28 +1590,28 @@
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" s="74"/>
       <c r="M4" s="72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N4" s="73"/>
       <c r="O4" s="74"/>
       <c r="P4" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>10</v>
@@ -1626,16 +1626,16 @@
         <v>10</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
@@ -1644,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="N5" s="60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P5" s="55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
       <c r="M55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="45fuPV7kuQ1yS3qZtrHE5A5f57Pf0goZSJx03F/sHbYqLNlJ17qVEDVexK+b4fykq5GJq3JfQCZt7flKDDEhBg==" saltValue="RnkmWrIXiEZZsNeoTCk7Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EGLpXTHDFuCaMopSPdv68Syv7k+ABvK+U0TuxgNvwdY6TudJVnf+RQLfBaXOuF20mHDreRKNk0RxD8huOwkvYQ==" saltValue="GHJ1vcWuztbetCfB+mnYXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>

--- a/form_reporting_templates/interim/Form-2FC_interim.xlsx
+++ b/form_reporting_templates/interim/Form-2FC_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8187C9-01D1-4EAD-8302-B6E88390A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEAB05C-B90B-43C2-BA73-675E8BBF7AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>2FC</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1223,17 +1223,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1274,7 +1274,7 @@
       <c r="D8" s="65"/>
       <c r="E8" s="20"/>
       <c r="F8" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="21"/>
@@ -1295,12 +1295,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1317,7 +1317,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1328,7 +1328,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="20"/>
@@ -1377,7 +1377,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="20"/>
@@ -1388,7 +1388,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1399,7 +1399,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="42" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1428,7 +1428,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="20"/>
@@ -1468,7 +1468,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zLm762lnbx+x2FeTO1gC4Kgkr1CA38+dAlnCC2wRVDPcpS/MxnEpmPa7rXA2AefTVtEW821N3Pg4NkmRquOoxg==" saltValue="35YNW2CynZ2WTme70V7zyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HHPNyAGttkGJeqGTiJot1o12gbvLUASh9Q5zrN/nvZwvHcZMYgjxISP7G+4Z/Dr5idlYWa03y1+xdagw9nCqcQ==" saltValue="1d0bmlBnyPdr5yiibvhvSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1482,7 +1482,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{1442B3F2-6122-44BA-A4A6-8B72CAE14165}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{36E4CE57-0E51-4624-84D7-B89CC49ED5B7}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{36E4CE57-0E51-4624-84D7-B89CC49ED5B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1577,80 +1577,80 @@
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="74"/>
       <c r="G4" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="74"/>
       <c r="M4" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="73"/>
       <c r="O4" s="74"/>
       <c r="P4" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="56" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="P5" s="55" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
